--- a/Communities_Eng_Estimate.v3.2.xlsx
+++ b/Communities_Eng_Estimate.v3.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="0" windowWidth="16280" windowHeight="14240" tabRatio="713" activeTab="1"/>
+    <workbookView xWindow="2100" yWindow="400" windowWidth="21640" windowHeight="13440" tabRatio="713" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate v1" sheetId="1" r:id="rId1"/>
@@ -46899,7 +46899,6 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -50011,7 +50010,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
